--- a/medicine/Enfance/Orianne_Charpentier/Orianne_Charpentier.xlsx
+++ b/medicine/Enfance/Orianne_Charpentier/Orianne_Charpentier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orianne Charpentier, née à Saïgon en 1974[1], est une journaliste et romancière française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orianne Charpentier, née à Saïgon en 1974, est une journaliste et romancière française.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômée en 1996 du Centre de formation des journalistes à Paris[2], elle est l'autrice de romans pour adolescents et travaille depuis 2011 pour Paris Mômes[3], un magazine qui recense les activités culturelles destinées aux enfants sur Paris.
-En 2017 paraît son roman Rage. « Rage, c'est le surnom d'une jeune réfugiée qui peine à dépasser un passé traumatisant, à accepter l'exil et son entrée dans l'âge adulte », selon l'avis critique de La Revue des livres pour enfants[4].  Michel Abescat, dans Télérama, écrit : « La fable touche, ouvre sur l’espoir d’une reconstruction, tragédie immémoriale et très contemporaine, portée par la poésie d’un texte discrètement engagé[5]. » L'ouvrage obtient plusieurs prix jeunesse, dont le Prix NRP de littérature jeunesse 2017[6] et le Prix des libraires du Québec 2018[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômée en 1996 du Centre de formation des journalistes à Paris, elle est l'autrice de romans pour adolescents et travaille depuis 2011 pour Paris Mômes, un magazine qui recense les activités culturelles destinées aux enfants sur Paris.
+En 2017 paraît son roman Rage. « Rage, c'est le surnom d'une jeune réfugiée qui peine à dépasser un passé traumatisant, à accepter l'exil et son entrée dans l'âge adulte », selon l'avis critique de La Revue des livres pour enfants.  Michel Abescat, dans Télérama, écrit : « La fable touche, ouvre sur l’espoir d’une reconstruction, tragédie immémoriale et très contemporaine, portée par la poésie d’un texte discrètement engagé. » L'ouvrage obtient plusieurs prix jeunesse, dont le Prix NRP de littérature jeunesse 2017 et le Prix des libraires du Québec 2018.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Orianne Charpentier (ill. Maurizio Quarello), Madame Gargouille, Paris, Gallimard Jeunesse, 2006, 128 p. (ISBN 978-2-07-511050-1, présentation en ligne)
 Orianne Charpentier (ill. Sébastien Mourrain), La petite capuche rouge, Paris, Gallimard Jeunesse, 2008, 128 p. (ISBN 978-2-07-061678-7, présentation en ligne)
@@ -580,7 +596,9 @@
           <t>Les guides Paris mômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ourida Aliouane, Orianne Charpentier et Gaëtan Dorémus, C'est mon anniversaire ! : 80 bons plans pour bien souffler ses bougies, Autrement, 2006, 91 p. (ISBN 978-2-7467-0870-9)
 Ourida Aliouane et Orianne Charpentier (ill. Anne-Sophie Tschiegg), Tout-petits dans la ville : 80 bons plans pour les 0-3 ans et leurs parents, Autrement, 2006, 91 p. (ISBN 978-2-7467-0848-8)
@@ -613,16 +631,18 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix Marguerite-Audoux des collèges 2015 pour Après la vague [8]
-Sélection pour le Prix des lycéens allemands pour Après la vague [9]
-Sélection Prix Vendredi 2017[10] pour Rage
-Prix NRP de littérature jeunesse 2017 pour Rage [6]
-Prix des libraires du Québec 2018, catégorie 12-17 ans hors Québec, pour Rage [7]
-Lauréate 2018 du Prix "Bouilles de Lecteurs", organisé par la médiathèque du Thouarsais, pour Rage [11]
-Lauréate 2018 du Prix UNICEF de littérature jeunesse, catégorie 13-15 ans, pour Rage  [12]
-Lauréate 2018 du Prix Marguerite Bahuet pour Rage  [13]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prix Marguerite-Audoux des collèges 2015 pour Après la vague 
+Sélection pour le Prix des lycéens allemands pour Après la vague 
+Sélection Prix Vendredi 2017 pour Rage
+Prix NRP de littérature jeunesse 2017 pour Rage 
+Prix des libraires du Québec 2018, catégorie 12-17 ans hors Québec, pour Rage 
+Lauréate 2018 du Prix "Bouilles de Lecteurs", organisé par la médiathèque du Thouarsais, pour Rage 
+Lauréate 2018 du Prix UNICEF de littérature jeunesse, catégorie 13-15 ans, pour Rage  
+Lauréate 2018 du Prix Marguerite Bahuet pour Rage  </t>
         </is>
       </c>
     </row>
